--- a/www/ig/fhir/sdo/StructureDefinition-sdo-task.xlsx
+++ b/www/ig/fhir/sdo/StructureDefinition-sdo-task.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2-ballot-3</t>
+    <t>4.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T09:33:23+00:00</t>
+    <t>2024-07-03T07:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1856,7 +1856,7 @@
     <t>Task.input:modePriseCharge.value[x]</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_JXX-ModePriseEnCharge/FHIR/JDV_JXX-ModePriseEnCharge/</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J264-ModeEtCentreDePriseEnCharge-MDPH/FHIR/JDV_J264-ModeEtCentreDePriseEnCharge-MDPH</t>
   </si>
   <si>
     <t>Task.input:modePriseCharge.value[x].id</t>
@@ -2511,7 +2511,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="123.12109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="123.9296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/www/ig/fhir/sdo/StructureDefinition-sdo-task.xlsx
+++ b/www/ig/fhir/sdo/StructureDefinition-sdo-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6219" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6003" uniqueCount="664">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.0.3-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T07:41:49+00:00</t>
+    <t>2024-12-19T14:39:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil utilisé pour véhiculer les informations sur la position des ESMS et des unités opérationnelles vis-à-vis de la prestation</t>
+    <t>Profil ESMS-SDO créé dans le contexte du suivi des orientations pour véhiculer les informations sur la position des ESMS et des unités opérationnelles vis-à-vis de la prestation.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -424,7 +424,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -444,7 +444,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -777,6 +777,9 @@
     <t>These states enable coordination of task status with off-the-shelf workflow solutions that support automation of tasks.</t>
   </si>
   <si>
+    <t>completed</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -1414,7 +1417,7 @@
 </t>
   </si>
   <si>
-    <t>5</t>
+    <t>4</t>
   </si>
   <si>
     <t>Information used to perform task</t>
@@ -1856,7 +1859,7 @@
     <t>Task.input:modePriseCharge.value[x]</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J264-ModeEtCentreDePriseEnCharge-MDPH/FHIR/JDV_J264-ModeEtCentreDePriseEnCharge-MDPH</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J264-ModeEtCentreDePriseEnCharge-MDPH/FHIR/JDV-J264-ModeEtCentreDePriseEnCharge-MDPH</t>
   </si>
   <si>
     <t>Task.input:modePriseCharge.value[x].id</t>
@@ -2028,41 +2031,6 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J250-MotifStatutPersonnePriseChargeUnite/FHIR/JDV-J250-MotifStatutPersonnePriseChargeUnite</t>
-  </si>
-  <si>
-    <t>Task.input:typeDroitPrestation</t>
-  </si>
-  <si>
-    <t>typeDroitPrestation</t>
-  </si>
-  <si>
-    <t>Permet de définir le type de droit et prestation caractérisant la décision d'orientation.</t>
-  </si>
-  <si>
-    <t>Task.input:typeDroitPrestation.id</t>
-  </si>
-  <si>
-    <t>Task.input:typeDroitPrestation.extension</t>
-  </si>
-  <si>
-    <t>Task.input:typeDroitPrestation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Task.input:typeDroitPrestation.type</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/sdo/CodeSystem/input-task-sdo-codesystem"/&gt;
-    &lt;code value="typeDroitPrestation"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Task.input:typeDroitPrestation.value[x]</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_JXX-typeDroitPrestation/FHIR/JDV_JXX-typeDroitPrestation</t>
   </si>
   <si>
     <t>Task.input:idDecision</t>
@@ -2477,7 +2445,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN171"/>
+  <dimension ref="A1:AN165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2511,7 +2479,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="123.9296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="123.671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -5321,7 +5289,7 @@
         <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>76</v>
@@ -5336,13 +5304,13 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y25" t="s" s="2">
         <v>242</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -5375,13 +5343,13 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>76</v>
@@ -5389,10 +5357,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5415,16 +5383,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5453,7 +5421,7 @@
         <v>156</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -5474,7 +5442,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5492,21 +5460,21 @@
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5529,19 +5497,19 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -5569,7 +5537,7 @@
         <v>156</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -5590,7 +5558,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5608,21 +5576,21 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5648,13 +5616,13 @@
         <v>166</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5665,7 +5633,7 @@
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -5680,13 +5648,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -5704,7 +5672,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -5719,13 +5687,13 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -5733,10 +5701,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5762,22 +5730,22 @@
         <v>166</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>243</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>76</v>
@@ -5798,13 +5766,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -5822,7 +5790,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5837,13 +5805,13 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -5851,10 +5819,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5877,16 +5845,16 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5915,10 +5883,10 @@
         <v>156</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -5936,7 +5904,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5951,24 +5919,24 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5994,10 +5962,10 @@
         <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>243</v>
@@ -6050,7 +6018,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -6068,7 +6036,7 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -6079,10 +6047,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6108,16 +6076,16 @@
         <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -6166,7 +6134,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -6184,10 +6152,10 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -6195,14 +6163,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6224,16 +6192,16 @@
         <v>219</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>222</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -6282,7 +6250,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -6297,13 +6265,13 @@
         <v>223</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>76</v>
@@ -6311,10 +6279,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6337,19 +6305,19 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>222</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -6398,7 +6366,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -6413,13 +6381,13 @@
         <v>223</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>76</v>
@@ -6427,10 +6395,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6453,16 +6421,16 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6512,7 +6480,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6524,31 +6492,31 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6567,17 +6535,17 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -6626,7 +6594,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6635,19 +6603,19 @@
         <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -6655,14 +6623,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6681,17 +6649,17 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -6740,7 +6708,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6749,7 +6717,7 @@
         <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>99</v>
@@ -6758,7 +6726,7 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -6769,10 +6737,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6795,19 +6763,19 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>222</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -6856,7 +6824,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6871,13 +6839,13 @@
         <v>223</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
@@ -6885,10 +6853,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6911,19 +6879,19 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6951,10 +6919,10 @@
         <v>170</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -6972,7 +6940,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6987,28 +6955,28 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7027,19 +6995,19 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -7088,7 +7056,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -7103,13 +7071,13 @@
         <v>223</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -7117,10 +7085,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7143,19 +7111,19 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>222</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -7204,7 +7172,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -7219,13 +7187,13 @@
         <v>223</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -7233,10 +7201,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7259,16 +7227,16 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7297,7 +7265,7 @@
         <v>156</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -7318,7 +7286,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7333,24 +7301,24 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7376,13 +7344,13 @@
         <v>219</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7432,7 +7400,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7447,13 +7415,13 @@
         <v>223</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>76</v>
@@ -7461,10 +7429,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7487,13 +7455,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>222</v>
@@ -7546,7 +7514,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7561,24 +7529,24 @@
         <v>223</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7601,16 +7569,16 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7660,7 +7628,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7675,10 +7643,10 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -7689,14 +7657,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7715,16 +7683,16 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7774,7 +7742,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7789,10 +7757,10 @@
         <v>223</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -7803,10 +7771,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7829,17 +7797,17 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -7888,7 +7856,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7906,7 +7874,7 @@
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -7917,10 +7885,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8029,10 +7997,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8143,14 +8111,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8172,10 +8140,10 @@
         <v>109</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>112</v>
@@ -8230,7 +8198,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8259,10 +8227,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8285,19 +8253,19 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -8346,7 +8314,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8364,7 +8332,7 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -8375,10 +8343,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8401,19 +8369,19 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -8462,7 +8430,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8474,27 +8442,27 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8517,13 +8485,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>222</v>
@@ -8576,7 +8544,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8594,7 +8562,7 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -8605,18 +8573,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -8631,17 +8599,17 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -8678,7 +8646,7 @@
         <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
@@ -8688,7 +8656,7 @@
         <v>115</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8706,7 +8674,7 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -8717,10 +8685,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8829,10 +8797,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8943,14 +8911,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8972,10 +8940,10 @@
         <v>109</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>112</v>
@@ -9030,7 +8998,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -9059,14 +9027,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9085,19 +9053,19 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -9125,7 +9093,7 @@
         <v>156</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>76</v>
@@ -9146,7 +9114,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
@@ -9164,21 +9132,21 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9201,13 +9169,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9258,7 +9226,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>86</v>
@@ -9276,7 +9244,7 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -9287,16 +9255,16 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9315,17 +9283,17 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -9374,7 +9342,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9392,7 +9360,7 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -9403,10 +9371,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9515,10 +9483,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9629,14 +9597,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9658,10 +9626,10 @@
         <v>109</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>112</v>
@@ -9716,7 +9684,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9745,14 +9713,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9771,19 +9739,19 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9793,7 +9761,7 @@
         <v>76</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>76</v>
@@ -9811,7 +9779,7 @@
         <v>156</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>76</v>
@@ -9832,7 +9800,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>86</v>
@@ -9850,21 +9818,21 @@
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9890,10 +9858,10 @@
         <v>198</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9944,7 +9912,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>86</v>
@@ -9962,7 +9930,7 @@
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -9973,16 +9941,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10001,17 +9969,17 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -10060,7 +10028,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10078,7 +10046,7 @@
         <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
@@ -10089,10 +10057,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10201,10 +10169,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10315,14 +10283,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10344,10 +10312,10 @@
         <v>109</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>112</v>
@@ -10402,7 +10370,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10431,14 +10399,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10457,19 +10425,19 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -10479,7 +10447,7 @@
         <v>76</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>76</v>
@@ -10497,7 +10465,7 @@
         <v>156</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>76</v>
@@ -10518,7 +10486,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>86</v>
@@ -10536,21 +10504,21 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10576,10 +10544,10 @@
         <v>102</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10630,7 +10598,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>86</v>
@@ -10648,7 +10616,7 @@
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -10659,16 +10627,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10687,17 +10655,17 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -10746,7 +10714,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10764,7 +10732,7 @@
         <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -10775,10 +10743,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10887,10 +10855,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11001,14 +10969,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11030,10 +10998,10 @@
         <v>109</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>112</v>
@@ -11088,7 +11056,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -11117,14 +11085,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11143,19 +11111,19 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -11165,7 +11133,7 @@
         <v>76</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>76</v>
@@ -11183,7 +11151,7 @@
         <v>156</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>76</v>
@@ -11204,7 +11172,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>86</v>
@@ -11222,21 +11190,21 @@
         <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11259,13 +11227,13 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11292,11 +11260,11 @@
         <v>76</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>76</v>
@@ -11314,7 +11282,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>86</v>
@@ -11332,7 +11300,7 @@
         <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -11343,16 +11311,16 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D78" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11371,17 +11339,17 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>76</v>
@@ -11430,7 +11398,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11448,7 +11416,7 @@
         <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
@@ -11459,10 +11427,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11571,10 +11539,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11685,14 +11653,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11714,10 +11682,10 @@
         <v>109</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>112</v>
@@ -11772,7 +11740,7 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11801,14 +11769,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11827,19 +11795,19 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>76</v>
@@ -11849,7 +11817,7 @@
         <v>76</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>76</v>
@@ -11867,7 +11835,7 @@
         <v>156</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>76</v>
@@ -11888,7 +11856,7 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>86</v>
@@ -11906,21 +11874,21 @@
         <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11943,13 +11911,13 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11976,11 +11944,11 @@
         <v>76</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>76</v>
@@ -11998,7 +11966,7 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>86</v>
@@ -12016,7 +11984,7 @@
         <v>76</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>76</v>
@@ -12027,16 +11995,16 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D84" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12055,17 +12023,17 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>76</v>
@@ -12114,7 +12082,7 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -12132,7 +12100,7 @@
         <v>76</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
@@ -12143,10 +12111,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12255,10 +12223,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12369,14 +12337,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12398,10 +12366,10 @@
         <v>109</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>112</v>
@@ -12456,7 +12424,7 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12485,14 +12453,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12511,19 +12479,19 @@
         <v>76</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>76</v>
@@ -12533,7 +12501,7 @@
         <v>76</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>76</v>
@@ -12551,7 +12519,7 @@
         <v>156</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>76</v>
@@ -12572,7 +12540,7 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>86</v>
@@ -12590,21 +12558,21 @@
         <v>76</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12627,13 +12595,13 @@
         <v>76</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12684,7 +12652,7 @@
         <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>86</v>
@@ -12702,7 +12670,7 @@
         <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>76</v>
@@ -12713,16 +12681,16 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D90" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12741,17 +12709,17 @@
         <v>76</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>76</v>
@@ -12800,7 +12768,7 @@
         <v>76</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12818,7 +12786,7 @@
         <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>76</v>
@@ -12829,10 +12797,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12941,10 +12909,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13055,14 +13023,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13084,10 +13052,10 @@
         <v>109</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>112</v>
@@ -13142,7 +13110,7 @@
         <v>76</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -13171,14 +13139,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13197,19 +13165,19 @@
         <v>76</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>76</v>
@@ -13219,7 +13187,7 @@
         <v>76</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>76</v>
@@ -13237,7 +13205,7 @@
         <v>156</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>76</v>
@@ -13258,7 +13226,7 @@
         <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>86</v>
@@ -13276,21 +13244,21 @@
         <v>76</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13316,10 +13284,10 @@
         <v>198</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13370,7 +13338,7 @@
         <v>76</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>86</v>
@@ -13388,7 +13356,7 @@
         <v>76</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>76</v>
@@ -13399,16 +13367,16 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D96" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13427,17 +13395,17 @@
         <v>76</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>76</v>
@@ -13486,7 +13454,7 @@
         <v>76</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -13504,7 +13472,7 @@
         <v>76</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>76</v>
@@ -13515,10 +13483,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13627,10 +13595,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13741,14 +13709,14 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13770,10 +13738,10 @@
         <v>109</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>112</v>
@@ -13828,7 +13796,7 @@
         <v>76</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -13857,14 +13825,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -13883,19 +13851,19 @@
         <v>76</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>76</v>
@@ -13905,7 +13873,7 @@
         <v>76</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>76</v>
@@ -13923,7 +13891,7 @@
         <v>156</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>76</v>
@@ -13944,7 +13912,7 @@
         <v>76</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>86</v>
@@ -13962,21 +13930,21 @@
         <v>76</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14002,10 +13970,10 @@
         <v>102</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14056,7 +14024,7 @@
         <v>76</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>86</v>
@@ -14074,7 +14042,7 @@
         <v>76</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>76</v>
@@ -14085,16 +14053,16 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D102" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14113,17 +14081,17 @@
         <v>76</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>76</v>
@@ -14172,7 +14140,7 @@
         <v>76</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -14190,7 +14158,7 @@
         <v>76</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>76</v>
@@ -14201,10 +14169,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14313,10 +14281,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14427,14 +14395,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14456,10 +14424,10 @@
         <v>109</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>112</v>
@@ -14514,7 +14482,7 @@
         <v>76</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -14543,14 +14511,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14569,19 +14537,19 @@
         <v>76</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>76</v>
@@ -14591,7 +14559,7 @@
         <v>76</v>
       </c>
       <c r="S106" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="T106" t="s" s="2">
         <v>76</v>
@@ -14609,7 +14577,7 @@
         <v>156</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>76</v>
@@ -14630,7 +14598,7 @@
         <v>76</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>86</v>
@@ -14648,21 +14616,21 @@
         <v>76</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14685,13 +14653,13 @@
         <v>76</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -14718,11 +14686,11 @@
         <v>76</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y107" s="2"/>
       <c r="Z107" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>76</v>
@@ -14740,7 +14708,7 @@
         <v>76</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>86</v>
@@ -14758,7 +14726,7 @@
         <v>76</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
@@ -14769,16 +14737,16 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14797,17 +14765,17 @@
         <v>76</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>76</v>
@@ -14856,7 +14824,7 @@
         <v>76</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -14874,7 +14842,7 @@
         <v>76</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>76</v>
@@ -14885,10 +14853,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14997,10 +14965,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15111,14 +15079,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15140,10 +15108,10 @@
         <v>109</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>112</v>
@@ -15198,7 +15166,7 @@
         <v>76</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
@@ -15227,14 +15195,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15253,19 +15221,19 @@
         <v>76</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>76</v>
@@ -15275,7 +15243,7 @@
         <v>76</v>
       </c>
       <c r="S112" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="T112" t="s" s="2">
         <v>76</v>
@@ -15293,7 +15261,7 @@
         <v>156</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>76</v>
@@ -15314,7 +15282,7 @@
         <v>76</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>86</v>
@@ -15332,21 +15300,21 @@
         <v>76</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15369,13 +15337,13 @@
         <v>76</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15402,11 +15370,11 @@
         <v>76</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y113" s="2"/>
       <c r="Z113" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>76</v>
@@ -15424,7 +15392,7 @@
         <v>76</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>86</v>
@@ -15442,7 +15410,7 @@
         <v>76</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>76</v>
@@ -15453,16 +15421,16 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D114" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -15481,17 +15449,17 @@
         <v>76</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>76</v>
@@ -15540,7 +15508,7 @@
         <v>76</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>77</v>
@@ -15558,7 +15526,7 @@
         <v>76</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
@@ -15569,10 +15537,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15681,10 +15649,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15795,14 +15763,14 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -15824,10 +15792,10 @@
         <v>109</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>112</v>
@@ -15882,7 +15850,7 @@
         <v>76</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>77</v>
@@ -15911,14 +15879,14 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -15937,19 +15905,19 @@
         <v>76</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>76</v>
@@ -15959,7 +15927,7 @@
         <v>76</v>
       </c>
       <c r="S118" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="T118" t="s" s="2">
         <v>76</v>
@@ -15977,7 +15945,7 @@
         <v>156</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>76</v>
@@ -15998,7 +15966,7 @@
         <v>76</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>86</v>
@@ -16016,21 +15984,21 @@
         <v>76</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16053,13 +16021,13 @@
         <v>76</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16110,7 +16078,7 @@
         <v>76</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>86</v>
@@ -16128,7 +16096,7 @@
         <v>76</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>76</v>
@@ -16139,16 +16107,16 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D120" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -16167,17 +16135,17 @@
         <v>76</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>76</v>
@@ -16226,7 +16194,7 @@
         <v>76</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>77</v>
@@ -16238,13 +16206,13 @@
         <v>98</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>76</v>
@@ -16255,10 +16223,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16367,10 +16335,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16481,14 +16449,14 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -16510,10 +16478,10 @@
         <v>109</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N123" t="s" s="2">
         <v>112</v>
@@ -16568,7 +16536,7 @@
         <v>76</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>77</v>
@@ -16597,14 +16565,14 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
@@ -16623,19 +16591,19 @@
         <v>76</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>76</v>
@@ -16645,7 +16613,7 @@
         <v>76</v>
       </c>
       <c r="S124" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>76</v>
@@ -16663,7 +16631,7 @@
         <v>156</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -16684,7 +16652,7 @@
         <v>76</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>86</v>
@@ -16702,21 +16670,21 @@
         <v>76</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16739,13 +16707,13 @@
         <v>76</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -16772,11 +16740,11 @@
         <v>76</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y125" s="2"/>
       <c r="Z125" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>76</v>
@@ -16794,7 +16762,7 @@
         <v>76</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>86</v>
@@ -16812,7 +16780,7 @@
         <v>76</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>76</v>
@@ -16823,10 +16791,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16935,10 +16903,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17049,10 +17017,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17078,16 +17046,16 @@
         <v>142</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>76</v>
@@ -17136,7 +17104,7 @@
         <v>76</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>77</v>
@@ -17154,21 +17122,21 @@
         <v>76</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17194,16 +17162,16 @@
         <v>102</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>76</v>
@@ -17252,7 +17220,7 @@
         <v>76</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>77</v>
@@ -17270,27 +17238,27 @@
         <v>76</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D130" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -17309,17 +17277,17 @@
         <v>76</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>76</v>
@@ -17368,7 +17336,7 @@
         <v>76</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>77</v>
@@ -17386,7 +17354,7 @@
         <v>76</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
@@ -17397,10 +17365,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17509,10 +17477,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17623,14 +17591,14 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -17652,10 +17620,10 @@
         <v>109</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N133" t="s" s="2">
         <v>112</v>
@@ -17710,7 +17678,7 @@
         <v>76</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>77</v>
@@ -17739,14 +17707,14 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -17765,19 +17733,19 @@
         <v>76</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>76</v>
@@ -17787,7 +17755,7 @@
         <v>76</v>
       </c>
       <c r="S134" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="T134" t="s" s="2">
         <v>76</v>
@@ -17805,7 +17773,7 @@
         <v>156</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>76</v>
@@ -17826,7 +17794,7 @@
         <v>76</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>86</v>
@@ -17844,21 +17812,21 @@
         <v>76</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17881,13 +17849,13 @@
         <v>76</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -17914,11 +17882,11 @@
         <v>76</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y135" s="2"/>
       <c r="Z135" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>76</v>
@@ -17936,7 +17904,7 @@
         <v>76</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>86</v>
@@ -17954,7 +17922,7 @@
         <v>76</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>76</v>
@@ -17965,16 +17933,16 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D136" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
@@ -17993,17 +17961,17 @@
         <v>76</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>76</v>
@@ -18052,7 +18020,7 @@
         <v>76</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>77</v>
@@ -18070,7 +18038,7 @@
         <v>76</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>76</v>
@@ -18081,10 +18049,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18193,10 +18161,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18307,14 +18275,14 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
@@ -18336,10 +18304,10 @@
         <v>109</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N139" t="s" s="2">
         <v>112</v>
@@ -18394,7 +18362,7 @@
         <v>76</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>77</v>
@@ -18423,14 +18391,14 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -18449,19 +18417,19 @@
         <v>76</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>76</v>
@@ -18471,7 +18439,7 @@
         <v>76</v>
       </c>
       <c r="S140" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="T140" t="s" s="2">
         <v>76</v>
@@ -18489,7 +18457,7 @@
         <v>156</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>76</v>
@@ -18510,7 +18478,7 @@
         <v>76</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>86</v>
@@ -18528,21 +18496,21 @@
         <v>76</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18565,13 +18533,13 @@
         <v>76</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -18622,7 +18590,7 @@
         <v>76</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>86</v>
@@ -18640,7 +18608,7 @@
         <v>76</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>76</v>
@@ -18651,16 +18619,16 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D142" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
@@ -18679,17 +18647,17 @@
         <v>76</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>76</v>
@@ -18738,7 +18706,7 @@
         <v>76</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>77</v>
@@ -18756,7 +18724,7 @@
         <v>76</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>76</v>
@@ -18767,10 +18735,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18879,10 +18847,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18993,14 +18961,14 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
@@ -19022,10 +18990,10 @@
         <v>109</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N145" t="s" s="2">
         <v>112</v>
@@ -19080,7 +19048,7 @@
         <v>76</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>77</v>
@@ -19109,14 +19077,14 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
@@ -19135,19 +19103,19 @@
         <v>76</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>76</v>
@@ -19157,7 +19125,7 @@
         <v>76</v>
       </c>
       <c r="S146" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="T146" t="s" s="2">
         <v>76</v>
@@ -19175,7 +19143,7 @@
         <v>156</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>76</v>
@@ -19196,7 +19164,7 @@
         <v>76</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>86</v>
@@ -19214,21 +19182,21 @@
         <v>76</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19251,13 +19219,13 @@
         <v>76</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -19284,11 +19252,11 @@
         <v>76</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y147" s="2"/>
       <c r="Z147" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>76</v>
@@ -19306,7 +19274,7 @@
         <v>76</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>86</v>
@@ -19324,7 +19292,7 @@
         <v>76</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>76</v>
@@ -19335,16 +19303,16 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D148" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
@@ -19363,17 +19331,17 @@
         <v>76</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>76</v>
@@ -19422,7 +19390,7 @@
         <v>76</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>77</v>
@@ -19440,7 +19408,7 @@
         <v>76</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>76</v>
@@ -19451,10 +19419,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19563,10 +19531,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19677,14 +19645,14 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -19706,10 +19674,10 @@
         <v>109</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N151" t="s" s="2">
         <v>112</v>
@@ -19764,7 +19732,7 @@
         <v>76</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>77</v>
@@ -19793,14 +19761,14 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -19819,19 +19787,19 @@
         <v>76</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>76</v>
@@ -19841,7 +19809,7 @@
         <v>76</v>
       </c>
       <c r="S152" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="T152" t="s" s="2">
         <v>76</v>
@@ -19859,7 +19827,7 @@
         <v>156</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>76</v>
@@ -19880,7 +19848,7 @@
         <v>76</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>86</v>
@@ -19898,21 +19866,21 @@
         <v>76</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -19935,13 +19903,13 @@
         <v>76</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -19968,11 +19936,13 @@
         <v>76</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Y153" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z153" t="s" s="2">
-        <v>638</v>
+        <v>76</v>
       </c>
       <c r="AA153" t="s" s="2">
         <v>76</v>
@@ -19990,7 +19960,7 @@
         <v>76</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>86</v>
@@ -20008,7 +19978,7 @@
         <v>76</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>76</v>
@@ -20022,13 +19992,13 @@
         <v>639</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C154" t="s" s="2">
         <v>640</v>
       </c>
       <c r="D154" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
@@ -20047,17 +20017,17 @@
         <v>76</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L154" t="s" s="2">
         <v>641</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>76</v>
@@ -20106,7 +20076,7 @@
         <v>76</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>77</v>
@@ -20124,7 +20094,7 @@
         <v>76</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>76</v>
@@ -20138,7 +20108,7 @@
         <v>642</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20250,7 +20220,7 @@
         <v>643</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20364,11 +20334,11 @@
         <v>644</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
@@ -20390,10 +20360,10 @@
         <v>109</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N157" t="s" s="2">
         <v>112</v>
@@ -20448,7 +20418,7 @@
         <v>76</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>77</v>
@@ -20480,11 +20450,11 @@
         <v>645</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -20503,19 +20473,19 @@
         <v>76</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>76</v>
@@ -20543,7 +20513,7 @@
         <v>156</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z158" t="s" s="2">
         <v>76</v>
@@ -20564,7 +20534,7 @@
         <v>76</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>86</v>
@@ -20582,13 +20552,13 @@
         <v>76</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="159">
@@ -20596,7 +20566,7 @@
         <v>647</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -20622,10 +20592,10 @@
         <v>198</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -20676,7 +20646,7 @@
         <v>76</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>86</v>
@@ -20694,7 +20664,7 @@
         <v>76</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>76</v>
@@ -20708,20 +20678,18 @@
         <v>648</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C160" t="s" s="2">
-        <v>649</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
-        <v>448</v>
+        <v>76</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G160" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H160" t="s" s="2">
         <v>76</v>
@@ -20733,17 +20701,17 @@
         <v>76</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
-        <v>452</v>
+        <v>651</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>76</v>
@@ -20792,7 +20760,7 @@
         <v>76</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>447</v>
+        <v>648</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>77</v>
@@ -20810,7 +20778,7 @@
         <v>76</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>76</v>
@@ -20821,10 +20789,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>455</v>
+        <v>652</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -20933,10 +20901,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>456</v>
+        <v>653</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21047,14 +21015,14 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>457</v>
+        <v>654</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s" s="2">
@@ -21076,10 +21044,10 @@
         <v>109</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N163" t="s" s="2">
         <v>112</v>
@@ -21134,7 +21102,7 @@
         <v>76</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>77</v>
@@ -21163,14 +21131,14 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>458</v>
+        <v>655</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s" s="2">
@@ -21189,19 +21157,19 @@
         <v>76</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>460</v>
+        <v>656</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>461</v>
+        <v>657</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>462</v>
+        <v>262</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>463</v>
+        <v>658</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>76</v>
@@ -21211,7 +21179,7 @@
         <v>76</v>
       </c>
       <c r="S164" t="s" s="2">
-        <v>655</v>
+        <v>76</v>
       </c>
       <c r="T164" t="s" s="2">
         <v>76</v>
@@ -21229,7 +21197,7 @@
         <v>156</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>464</v>
+        <v>659</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>76</v>
@@ -21250,7 +21218,7 @@
         <v>76</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>458</v>
+        <v>655</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>86</v>
@@ -21268,21 +21236,21 @@
         <v>76</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>465</v>
+        <v>660</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -21305,16 +21273,18 @@
         <v>76</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>198</v>
+        <v>467</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>467</v>
+        <v>661</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>468</v>
+        <v>662</v>
       </c>
       <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
+      <c r="O165" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="P165" t="s" s="2">
         <v>76</v>
       </c>
@@ -21362,7 +21332,7 @@
         <v>76</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>465</v>
+        <v>660</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>86</v>
@@ -21380,698 +21350,12 @@
         <v>76</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="B166" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="C166" s="2"/>
-      <c r="D166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E166" s="2"/>
-      <c r="F166" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K166" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="N166" s="2"/>
-      <c r="O166" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="P166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q166" s="2"/>
-      <c r="R166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF166" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AG166" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI166" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ166" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL166" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AM166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN166" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="B167" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="C167" s="2"/>
-      <c r="D167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E167" s="2"/>
-      <c r="F167" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G167" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K167" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
-      <c r="P167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q167" s="2"/>
-      <c r="R167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF167" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG167" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH167" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL167" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN167" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="B168" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="C168" s="2"/>
-      <c r="D168" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="E168" s="2"/>
-      <c r="F168" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K168" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O168" s="2"/>
-      <c r="P168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q168" s="2"/>
-      <c r="R168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB168" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AC168" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AD168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE168" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF168" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AG168" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI168" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ168" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL168" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AM168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN168" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="B169" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="C169" s="2"/>
-      <c r="D169" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="E169" s="2"/>
-      <c r="F169" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I169" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J169" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K169" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="P169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q169" s="2"/>
-      <c r="R169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF169" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AG169" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI169" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ169" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL169" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AM169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN169" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="B170" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="C170" s="2"/>
-      <c r="D170" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="E170" s="2"/>
-      <c r="F170" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G170" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K170" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="L170" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O170" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="P170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q170" s="2"/>
-      <c r="R170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X170" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y170" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="Z170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF170" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="AG170" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH170" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI170" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ170" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL170" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AM170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN170" t="s" s="2">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="B171" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="C171" s="2"/>
-      <c r="D171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E171" s="2"/>
-      <c r="F171" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G171" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K171" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="N171" s="2"/>
-      <c r="O171" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="P171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q171" s="2"/>
-      <c r="R171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF171" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AG171" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH171" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI171" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ171" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL171" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AM171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN171" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/www/ig/fhir/sdo/StructureDefinition-sdo-task.xlsx
+++ b/www/ig/fhir/sdo/StructureDefinition-sdo-task.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3</t>
+    <t>4.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T17:28:10+00:00</t>
+    <t>2025-06-19T08:13:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2402,15 +2402,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.8203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.4453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.85546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2421,26 +2421,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="123.671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="145.00390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="106.02734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="55.72265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="109.98828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="47.7734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="94.296875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/www/ig/fhir/sdo/StructureDefinition-sdo-task.xlsx
+++ b/www/ig/fhir/sdo/StructureDefinition-sdo-task.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.4</t>
+    <t>4.0.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T08:13:37+00:00</t>
+    <t>2025-10-13T14:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -897,7 +897,7 @@
     <t>Task.description</t>
   </si>
   <si>
-    <t>Human-readable explanation of task</t>
+    <t>A utiliser pour transmettre les commentaires de la MDPH lors d’une annulation d’une notification ou d’un refus de l’admission impossible ou d’une réactivation d’une notification et/ou de l'usager lors d’une annulation d’une notification ou d’une réactivation une notification.</t>
   </si>
   <si>
     <t>A free-text description of what is to be performed.</t>
@@ -1571,7 +1571,7 @@
     <t>dateStatutESMS</t>
   </si>
   <si>
-    <t>Permet de définir la date d'entrée dans le statut</t>
+    <t>La spécification fonctionnelle des échanges (https://esante.gouv.fr/volet-si-esms-viatrajectoire-module-ph) donne la signification de cette date par rapport au statut de l'ESMS.</t>
   </si>
   <si>
     <t>Task.input:dateStatutESMS.id</t>
@@ -1917,7 +1917,7 @@
     <t>dateStatutUnite</t>
   </si>
   <si>
-    <t>Permet de définir la date d'entrée renseignée par l'utilisateur pour les statuts</t>
+    <t>La spécification fonctionnelle des échanges (https://esante.gouv.fr/volet-si-esms-viatrajectoire-module-ph) donne la signification de cette date par rapport au statut de l’unité.</t>
   </si>
   <si>
     <t>Task.input:dateStatutUnite.id</t>
@@ -2402,15 +2402,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.80078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.38671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.8203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.4453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2421,26 +2421,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="145.00390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="106.02734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="123.671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="47.7734375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="94.296875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="39.109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="55.72265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="109.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="45.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
